--- a/matlab/resources/xlsx/resultats.xlsx
+++ b/matlab/resources/xlsx/resultats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\localhost\university\math0487-2\matlab\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0EE7BCC8-4C52-4867-A2B6-F314DEFFD3D7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D69E5E90-4BDD-4740-91F5-A3C8B5A13359}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14469" windowHeight="9171" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -543,7 +543,9 @@
         <v>0</v>
       </c>
       <c r="B1" s="5"/>
-      <c r="C1" s="2"/>
+      <c r="C1" s="2">
+        <v>14</v>
+      </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
@@ -645,7 +647,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="4">
-        <v>6.8</v>
+        <v>11.331666404304976</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1">
@@ -655,7 +657,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="4">
-        <v>45.9</v>
+        <v>31.236333595695037</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
@@ -677,7 +679,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="4">
-        <v>1.1000000000000001</v>
+        <v>4.8582360464956693</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1">
@@ -687,7 +689,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="4">
-        <v>15.1</v>
+        <v>10.873763953504328</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
@@ -979,7 +981,7 @@
         <v>31</v>
       </c>
       <c r="D38" s="4">
-        <v>-0.17100000000001003</v>
+        <v>-1.5550000000000175</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="12.45">
@@ -1023,7 +1025,7 @@
         <v>36</v>
       </c>
       <c r="D42" s="4">
-        <v>-0.59050000000000935</v>
+        <v>-1.9745000000000168</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="12.45">
@@ -1047,7 +1049,7 @@
         <v>39</v>
       </c>
       <c r="D44" s="4">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="12.45">
@@ -1071,7 +1073,7 @@
         <v>42</v>
       </c>
       <c r="D46" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="12.45">
@@ -1085,7 +1087,7 @@
         <v>44</v>
       </c>
       <c r="D47" s="4">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2830" spans="108:108" ht="15.75" customHeight="1">
